--- a/biology/Médecine/Club_des_Acteurs_de_la_TéléSanté/Club_des_Acteurs_de_la_TéléSanté.xlsx
+++ b/biology/Médecine/Club_des_Acteurs_de_la_TéléSanté/Club_des_Acteurs_de_la_TéléSanté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club_des_Acteurs_de_la_T%C3%A9l%C3%A9Sant%C3%A9</t>
+          <t>Club_des_Acteurs_de_la_TéléSanté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Club des Acteurs de la TELésanté (CATEL) est un réseau national de compétences en télémédecine, qui a pour but de contribuer autant que possible au développement et la promotion de la télémédecine en France et dans le monde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Club_des_Acteurs_de_la_T%C3%A9l%C3%A9Sant%C3%A9</t>
+          <t>Club_des_Acteurs_de_la_TéléSanté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CATEL est une association à but non lucratif créée en 1997, régie par la loi de 1901, dans le cadre du développement exponentiel des technologies de l'information et de la communication (TIC) associées à la santé.
 La structure a su progressivement faire évoluer ses champs d’activité, passant d’un rôle initial de mutualisation d’initiatives disparates en télésanté (Organisation de lieux d’échanges d’expériences), à une mission de diffusion d’informations en 2000 (Veille et transfert de connaissances), puis d’étude stratégique et d’assistant à maîtrise d’ouvrage en 2003 (Accompagnement collectif de projets innovants).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Club_des_Acteurs_de_la_T%C3%A9l%C3%A9Sant%C3%A9</t>
+          <t>Club_des_Acteurs_de_la_TéléSanté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Réseau CATEL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après 10 ans d'existence, le CATEL compte en outre 700 membres et relais en France et dans les pays francophones, réunis pour répondre aux enjeux de santé publique et économiques de l’avènement de ces nouveaux outils au service de la pratique médicale et de la santé.
 Il est par ailleurs au cœur d’un réseau électronique de plus de 14 000 contacts identifiés comme acteurs de la TéléSanté en francophonie. Ces membres sont répartis principalement sur le territoire français, en lien avec des réseaux homologues à l’étranger.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Club_des_Acteurs_de_la_T%C3%A9l%C3%A9Sant%C3%A9</t>
+          <t>Club_des_Acteurs_de_la_TéléSanté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La mission du CATEL est de :
 promouvoir la télésanté en France, en relation avec les évolutions du secteur de la santé ;
@@ -592,7 +610,7 @@
 les groupes de réflexion et de formation, qui ont lieu en régions quatre fois par an sur des thèmes d'actualité,
 participation à des manifestations de nombreuses manifestations de TéléSanté,
 veille technologique et transfert de connaissances :
-un site Internet, le portail de la TéléSanté[1],
+un site Internet, le portail de la TéléSanté,
 une lettre de veille mensuelle, à destination des adhérents,
 un flash d'informations, moyen de diffuser les appels à expertise, à partenaires, et à projets des adhérents auprès de ses 5 700 contacts,
 les dossiers thématiques,
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Club_des_Acteurs_de_la_T%C3%A9l%C3%A9Sant%C3%A9</t>
+          <t>Club_des_Acteurs_de_la_TéléSanté</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,11 +642,13 @@
           <t>Services réservés aux membres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Être membre du Réseau CATEL permet de
 recevoir la Lettre de Veille Télésanté mensuelle ;
-accéder grâce un mot de passe à tous les articles, archives, et dossiers thématiques disponibles sur [1] ;
+accéder grâce un mot de passe à tous les articles, archives, et dossiers thématiques disponibles sur  ;
 bénéficier de la mise en relation avec d'autres membres du réseau ;
 promouvoir vos projets en France et à l'étranger en publiant vos articles sur le portail ;
 lancer des appels à expériences / à partenaires auprès de nos 14000 contacts ;
